--- a/result/topic_prop_pos.xlsx
+++ b/result/topic_prop_pos.xlsx
@@ -454,7 +454,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.057*"운동" + 0.049*"디자인" + 0.029*"정리" + 0.028*"별로" + 0.024*"선택" + 0.024*"프로그램" + 0.021*"정말" + 0.018*"감성" + 0.016*"요가" + 0.015*"등산"</t>
+          <t>0.042*"공유" + 0.035*"릴스" + 0.032*"업데이트" + 0.026*"인스타" + 0.018*"관심" + 0.018*"오류" + 0.017*"음악" + 0.013*"소통" + 0.011*"메모" + 0.009*"보고"</t>
         </is>
       </c>
     </row>
@@ -467,7 +467,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.118*"보기" + 0.097*"걸음" + 0.081*"설정" + 0.051*"쓰기" + 0.033*"알림" + 0.030*"재미" + 0.029*"기록" + 0.028*"목표" + 0.025*"음악" + 0.024*"한눈"</t>
+          <t>0.037*"스토리" + 0.036*"인스타그램" + 0.032*"추가" + 0.021*"업데이트" + 0.016*"인스타" + 0.016*"모드" + 0.016*"정말" + 0.016*"안드로이드" + 0.011*"버그" + 0.011*"보이"</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.136*"기록" + 0.076*"체크" + 0.073*"체중" + 0.066*"수정" + 0.050*"알람" + 0.041*"확인" + 0.035*"설치" + 0.030*"일기장" + 0.023*"생기" + 0.022*"변화"</t>
+          <t>0.059*"수정" + 0.039*"사진" + 0.030*"커버" + 0.030*"활용" + 0.022*"메모" + 0.020*"알림" + 0.020*"팔로우" + 0.020*"기억" + 0.020*"성장" + 0.011*"댓글"</t>
         </is>
       </c>
     </row>
@@ -493,7 +493,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.046*"글씨체" + 0.043*"업데이트" + 0.041*"정보" + 0.034*"스마트폰" + 0.031*"다시" + 0.027*"백업" + 0.026*"삭제" + 0.025*"지원" + 0.024*"폰트" + 0.023*"리셋"</t>
+          <t>0.066*"사진" + 0.026*"상대방" + 0.020*"저장" + 0.020*"항상" + 0.020*"비공개" + 0.017*"계정" + 0.014*"게시" + 0.014*"가로" + 0.014*"안" + 0.014*"오류"</t>
         </is>
       </c>
     </row>
@@ -506,7 +506,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.188*"어플" + 0.095*"다이어트" + 0.084*"최고" + 0.071*"정말" + 0.060*"운동" + 0.058*"추천" + 0.039*"기분" + 0.026*"코인" + 0.018*"건강" + 0.014*"개인"</t>
+          <t>0.094*"게시" + 0.075*"물" + 0.048*"스토리" + 0.029*"사진" + 0.027*"하이라이트" + 0.025*"계정" + 0.019*"추가" + 0.015*"화면" + 0.013*"안" + 0.013*"업로드"</t>
         </is>
       </c>
     </row>
@@ -519,7 +519,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.206*"일기" + 0.062*"음식" + 0.047*"식단" + 0.042*"도움" + 0.040*"관리" + 0.039*"입력" + 0.039*"칼로리" + 0.036*"다이어트" + 0.030*"정말" + 0.024*"추가"</t>
+          <t>0.056*"물" + 0.056*"게시" + 0.024*"다시" + 0.024*"정지" + 0.022*"자동" + 0.019*"사진" + 0.019*"스토리" + 0.018*"오류" + 0.018*"안" + 0.018*"수정"</t>
         </is>
       </c>
     </row>
@@ -532,7 +532,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.228*"마음" + 0.035*"트레이닝" + 0.034*"연동" + 0.031*"등록" + 0.027*"감사" + 0.026*"정말" + 0.022*"듭니" + 0.016*"도전" + 0.016*"목록" + 0.015*"스트레스"</t>
+          <t>0.059*"계정" + 0.050*"스토리" + 0.031*"업데이트" + 0.023*"다시" + 0.021*"메모" + 0.019*"오류" + 0.019*"동영상" + 0.019*"노래" + 0.017*"사진" + 0.015*"삭제"</t>
         </is>
       </c>
     </row>
@@ -545,7 +545,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.218*"운동" + 0.043*"시작" + 0.031*"정말" + 0.023*"설명" + 0.022*"이야기" + 0.021*"적립" + 0.019*"동영상" + 0.018*"검색" + 0.018*"도움" + 0.015*"확인"</t>
+          <t>0.061*"인스타" + 0.048*"사진" + 0.025*"디엠" + 0.019*"다시" + 0.018*"갤럭시" + 0.016*"업데이트" + 0.013*"에러" + 0.013*"점점" + 0.013*"자꾸" + 0.013*"발전"</t>
         </is>
       </c>
     </row>
@@ -558,7 +558,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.097*"사진" + 0.038*"구매" + 0.032*"분위기" + 0.031*"결제" + 0.030*"유료" + 0.025*"가끔" + 0.025*"달이" + 0.025*"습관" + 0.024*"가장" + 0.022*"무료"</t>
+          <t>0.047*"업로드" + 0.044*"사진" + 0.035*"인스타" + 0.035*"영상" + 0.030*"오류" + 0.028*"동영상" + 0.025*"조절" + 0.024*"추천" + 0.020*"정말" + 0.020*"사이즈"</t>
         </is>
       </c>
     </row>
@@ -571,7 +571,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.085*"테마" + 0.069*"표시" + 0.063*"칼로리" + 0.058*"광고" + 0.037*"심플" + 0.035*"배경" + 0.034*"화면" + 0.030*"계산" + 0.029*"자꾸" + 0.020*"숫자"</t>
+          <t>0.111*"사진" + 0.049*"수정" + 0.024*"삭제" + 0.023*"갤럭시" + 0.020*"정말" + 0.020*"아이폰" + 0.020*"피드" + 0.017*"추가" + 0.016*"인스타그램" + 0.015*"편집"</t>
         </is>
       </c>
     </row>

--- a/result/topic_prop_pos.xlsx
+++ b/result/topic_prop_pos.xlsx
@@ -454,7 +454,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.042*"공유" + 0.035*"릴스" + 0.032*"업데이트" + 0.026*"인스타" + 0.018*"관심" + 0.018*"오류" + 0.017*"음악" + 0.013*"소통" + 0.011*"메모" + 0.009*"보고"</t>
+          <t>0.043*"사진" + 0.033*"스토리" + 0.027*"인스타" + 0.027*"동영상" + 0.022*"인스타그램" + 0.017*"다시" + 0.017*"추가" + 0.017*"설정" + 0.011*"위주" + 0.011*"피드"</t>
         </is>
       </c>
     </row>
@@ -467,7 +467,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.037*"스토리" + 0.036*"인스타그램" + 0.032*"추가" + 0.021*"업데이트" + 0.016*"인스타" + 0.016*"모드" + 0.016*"정말" + 0.016*"안드로이드" + 0.011*"버그" + 0.011*"보이"</t>
+          <t>0.103*"사진" + 0.067*"게시" + 0.041*"삭제" + 0.031*"검색" + 0.031*"추가" + 0.019*"인스타그램" + 0.019*"업데이트" + 0.019*"점점" + 0.018*"피드" + 0.014*"다시"</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.059*"수정" + 0.039*"사진" + 0.030*"커버" + 0.030*"활용" + 0.022*"메모" + 0.020*"알림" + 0.020*"팔로우" + 0.020*"기억" + 0.020*"성장" + 0.011*"댓글"</t>
+          <t>0.082*"사진" + 0.066*"게시" + 0.039*"수정" + 0.034*"스토리" + 0.024*"추가" + 0.021*"인스타" + 0.020*"정지" + 0.016*"설정" + 0.016*"비율" + 0.013*"영상"</t>
         </is>
       </c>
     </row>
@@ -493,7 +493,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.066*"사진" + 0.026*"상대방" + 0.020*"저장" + 0.020*"항상" + 0.020*"비공개" + 0.017*"계정" + 0.014*"게시" + 0.014*"가로" + 0.014*"안" + 0.014*"오류"</t>
+          <t>0.047*"계정" + 0.038*"메모" + 0.025*"노래" + 0.019*"리기" + 0.019*"모드" + 0.015*"사진" + 0.015*"삭제" + 0.013*"버그" + 0.013*"메세지" + 0.013*"찾기"</t>
         </is>
       </c>
     </row>
@@ -506,7 +506,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.094*"게시" + 0.075*"물" + 0.048*"스토리" + 0.029*"사진" + 0.027*"하이라이트" + 0.025*"계정" + 0.019*"추가" + 0.015*"화면" + 0.013*"안" + 0.013*"업로드"</t>
+          <t>0.035*"사이즈" + 0.035*"게시" + 0.027*"인스타" + 0.027*"사진" + 0.027*"피드" + 0.018*"공개" + 0.018*"상대방" + 0.018*"보기" + 0.018*"수정" + 0.018*"로고"</t>
         </is>
       </c>
     </row>
@@ -519,7 +519,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.056*"물" + 0.056*"게시" + 0.024*"다시" + 0.024*"정지" + 0.022*"자동" + 0.019*"사진" + 0.019*"스토리" + 0.018*"오류" + 0.018*"안" + 0.018*"수정"</t>
+          <t>0.039*"스토리" + 0.037*"계정" + 0.022*"릴스" + 0.021*"게시" + 0.019*"관심" + 0.016*"갤럭시" + 0.015*"화면" + 0.015*"폰트" + 0.015*"문제" + 0.014*"인스타"</t>
         </is>
       </c>
     </row>
@@ -532,7 +532,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.059*"계정" + 0.050*"스토리" + 0.031*"업데이트" + 0.023*"다시" + 0.021*"메모" + 0.019*"오류" + 0.019*"동영상" + 0.019*"노래" + 0.017*"사진" + 0.015*"삭제"</t>
+          <t>0.082*"인스타" + 0.022*"릴스" + 0.022*"노래" + 0.017*"동영상" + 0.017*"오류" + 0.017*"인스타그램" + 0.017*"세계" + 0.017*"사진" + 0.011*"에러" + 0.011*"생활"</t>
         </is>
       </c>
     </row>
@@ -545,7 +545,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.061*"인스타" + 0.048*"사진" + 0.025*"디엠" + 0.019*"다시" + 0.018*"갤럭시" + 0.016*"업데이트" + 0.013*"에러" + 0.013*"점점" + 0.013*"자꾸" + 0.013*"발전"</t>
+          <t>0.053*"사진" + 0.040*"게시" + 0.033*"오류" + 0.033*"동영상" + 0.027*"자동" + 0.027*"개선" + 0.027*"업로드" + 0.020*"어플" + 0.014*"인스타그램" + 0.014*"저장"</t>
         </is>
       </c>
     </row>
@@ -558,7 +558,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.047*"업로드" + 0.044*"사진" + 0.035*"인스타" + 0.035*"영상" + 0.030*"오류" + 0.028*"동영상" + 0.025*"조절" + 0.024*"추천" + 0.020*"정말" + 0.020*"사이즈"</t>
+          <t>0.075*"사진" + 0.036*"스토리" + 0.036*"하이라이트" + 0.034*"정말" + 0.019*"갤럭시" + 0.018*"추가" + 0.016*"카메라" + 0.016*"동영상" + 0.011*"마음" + 0.011*"메세지"</t>
         </is>
       </c>
     </row>
@@ -571,7 +571,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.111*"사진" + 0.049*"수정" + 0.024*"삭제" + 0.023*"갤럭시" + 0.020*"정말" + 0.020*"아이폰" + 0.020*"피드" + 0.017*"추가" + 0.016*"인스타그램" + 0.015*"편집"</t>
+          <t>0.049*"업데이트" + 0.029*"오류" + 0.029*"계정" + 0.027*"다시" + 0.022*"단점" + 0.022*"인스타" + 0.019*"영상" + 0.015*"인스타그램" + 0.015*"업로드" + 0.015*"메모"</t>
         </is>
       </c>
     </row>
